--- a/public/formats/items.xlsx
+++ b/public/formats/items.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\softwarefactory\facturadorpro3\public\formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328A4F04-3B26-40A5-BCA4-630DA7CF89DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>Descripción</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Código Interno</t>
   </si>
@@ -68,12 +66,6 @@
     <t>PEN</t>
   </si>
   <si>
-    <t>Coca cola</t>
-  </si>
-  <si>
-    <t>P00X</t>
-  </si>
-  <si>
     <t>Tiene Igv</t>
   </si>
   <si>
@@ -102,12 +94,45 @@
   </si>
   <si>
     <t>Nike</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Nombre secundario</t>
+  </si>
+  <si>
+    <t>desc 1</t>
+  </si>
+  <si>
+    <t>desc 2</t>
+  </si>
+  <si>
+    <t>nombre sec 11</t>
+  </si>
+  <si>
+    <t>nombre sec 22</t>
+  </si>
+  <si>
+    <t>Código lote</t>
+  </si>
+  <si>
+    <t>Fec. Vencimiento</t>
+  </si>
+  <si>
+    <t>Pepsi Coca cola</t>
+  </si>
+  <si>
+    <t>P1212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,64 +465,78 @@
     <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>20202020</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2">
         <v>120.25</v>
@@ -505,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>120.5</v>
@@ -520,27 +560,33 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>51121703</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>150</v>
@@ -549,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>150</v>
@@ -564,10 +610,22 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>25</v>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>11223344</v>
+      </c>
+      <c r="R3" s="1">
+        <v>44123</v>
       </c>
     </row>
   </sheetData>
